--- a/로스트아크/신규클래스_아이디어.xlsx
+++ b/로스트아크/신규클래스_아이디어.xlsx
@@ -2,18 +2,19 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
-  <workbookPr/>
+  <workbookPr codeName="현재_통합_문서"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sky20.DESKTOP-SELDRMC\OneDrive\바탕 화면\진선\기획\GameDesign\로스트아크\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sky20\Desktop\진선\GameDesign\로스트아크\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{804664E0-4BF3-46C1-8AE3-2D3EF75F430E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D6FF169-FF50-471B-B021-9CD8A77CC3FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="GPT " sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="69">
   <si>
     <t>사용 무기</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -55,14 +56,6 @@
   </si>
   <si>
     <t>검</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>남-블레이드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>검술 장인</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -78,12 +71,506 @@
     <t>비고</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>이기어검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>남-블레이드
+?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부채</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>애록 대륙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>곰방대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선비, 한량무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스피릿 오브</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도깨비 방망이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도깨비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>점성술사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서판</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>확장된 무기 컨셉 아이디어</t>
+  </si>
+  <si>
+    <t>1. 부채 (Fan)</t>
+  </si>
+  <si>
+    <r>
+      <t>컨셉:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 번개의 춤사위</t>
+    </r>
+  </si>
+  <si>
+    <t>부채를 접으면서 번개 에너지를 모으고, 펼칠 때 폭발적인 번개를 방출하여 대미지를 입히는 기술.</t>
+  </si>
+  <si>
+    <t>선비의 우아한 춤사위를 연상시키는 공격 동작으로, 적을 강타하며 번개로 마무리.</t>
+  </si>
+  <si>
+    <t>특수 기술:</t>
+  </si>
+  <si>
+    <r>
+      <t>번개의 서곡:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 부채를 회전시켜 주변에 전기장을 형성, 적을 기절시키거나 이동속도를 감소.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>벼락 무도회:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 큰 원을 그리며 춤을 추고, 번개 폭발로 적을 밀쳐내며 큰 대미지를 입힘.</t>
+    </r>
+  </si>
+  <si>
+    <t>2. 곰방대 (Smoking Pipe)</t>
+  </si>
+  <si>
+    <r>
+      <t>컨셉:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 연기로 무장한 전사</t>
+    </r>
+  </si>
+  <si>
+    <t>거대한 곰방대를 둔기로 휘둘러 적을 강타하는 물리적 공격 스타일.</t>
+  </si>
+  <si>
+    <t>곰방대에서 나오는 연기를 추진력으로 사용해 빠르게 이동하거나 공중에서 강력한 충격파를 발생.</t>
+  </si>
+  <si>
+    <t>연기를 사용해 분신을 만들어 적의 주의를 분산시키거나 방어막으로 아군을 보호.</t>
+  </si>
+  <si>
+    <r>
+      <t>연기 폭발:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 곰방대를 바닥에 내려쳐 강력한 연기 폭발을 일으켜 넓은 범위에 피해.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>환영의 안개:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 짙은 연기를 내뿜어 아군에게 은신 효과를 부여하거나 적의 공격을 무효화.</t>
+    </r>
+  </si>
+  <si>
+    <t>3. 탈 (Mask)</t>
+  </si>
+  <si>
+    <r>
+      <t>컨셉:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 탈로 변신하는 전사</t>
+    </r>
+  </si>
+  <si>
+    <t>다양한 탈(가면)을 바꿔가며 각기 다른 태세와 능력을 발휘.</t>
+  </si>
+  <si>
+    <t>예시 태세:</t>
+  </si>
+  <si>
+    <r>
+      <t>사자탈:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 사자의 힘과 기동성을 얻어 빠르고 강력한 근접 공격.</t>
+    </r>
+  </si>
+  <si>
+    <t>기술: 사자 발톱을 형상화한 충격파를 전방으로 발사.</t>
+  </si>
+  <si>
+    <r>
+      <t>하회탈:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 광대처럼 유연하고 예측 불가능한 동작으로 적을 혼란스럽게 만들며 춤을 추듯 공격.</t>
+    </r>
+  </si>
+  <si>
+    <t>기술: 적에게 독특한 디버프를 적용하거나 혼란 효과 부여.</t>
+  </si>
+  <si>
+    <r>
+      <t>탈의 춤:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 다양한 탈을 연속적으로 바꿔가며 다채로운 기술을 연계.</t>
+    </r>
+  </si>
+  <si>
+    <t>4. 바늘과 실 (Needle and Thread)</t>
+  </si>
+  <si>
+    <r>
+      <t>컨셉:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 운명을 엮는 재봉사</t>
+    </r>
+  </si>
+  <si>
+    <t>바늘에 달린 실을 사슬처럼 사용하여 중거리 공격과 제어에 특화.</t>
+  </si>
+  <si>
+    <t>날카로운 바늘로 적을 꿰뚫고 실로 적을 묶거나 끌어오는 전술적 플레이 가능.</t>
+  </si>
+  <si>
+    <r>
+      <t>운명의 실타래:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 적을 꿰뚫은 뒤 실로 끌어당기며 근접 공격.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>재봉사의 계약:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 실을 연결해 범위 내 적을 묶고 대미지를 공유하게 만듦.</t>
+    </r>
+  </si>
+  <si>
+    <t>5. 피리 (Flute)</t>
+  </si>
+  <si>
+    <r>
+      <t>컨셉:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 만파식적의 음률</t>
+    </r>
+  </si>
+  <si>
+    <t>전설 속 만파식적을 모티브로 한 무기. 피리를 불어 소환수를 조종하거나 적을 공격.</t>
+  </si>
+  <si>
+    <r>
+      <t>직접 공격:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 피리로 적을 타격하거나 음파를 발사해 원거리 대미지.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>소환수 조종:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 피리의 선율에 따라 소환수의 행동을 제어하거나 특수 능력을 발휘.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>평화의 멜로디:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 아군에게 치유 및 버프 효과를 부여.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>혼돈의 교향곡:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 소환수들이 적을 둘러싸며 연속 공격을 퍼붓는 기술.</t>
+    </r>
+  </si>
+  <si>
+    <t>6. 부적 (Talisman)</t>
+  </si>
+  <si>
+    <r>
+      <t>컨셉:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 속성의 주술사</t>
+    </r>
+  </si>
+  <si>
+    <t>부적을 통해 불, 물, 바람, 번개 등 다양한 속성을 활용하는 주술 기반 캐릭터.</t>
+  </si>
+  <si>
+    <t>부적을 적에게 던져 폭발시키거나, 땅에 설치해 영역을 장악.</t>
+  </si>
+  <si>
+    <r>
+      <t>속성 폭발:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 부적을 던져 특정 속성의 폭발을 일으킴.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>부적의 함정:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 부적을 설치해 적이 밟으면 속성 공격 발동.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>령의 강림:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 부적을 사용해 강력한 영체를 소환, 대규모 공격 발동.</t>
+    </r>
+  </si>
+  <si>
+    <t>부채 + 바늘과실 + 부적 + 호패
+- 부채와 부적을 함께 사용
+- 부채로 번개를 불러 모음
+- 춤을 추는 듯한 동작
+- 부채로 호패술 사용
+- 부적을 통해 다양한 속성 공격을 함.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정령술사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 정령화 (변신캐)
+- 수인형태로 변신
+- 조류형
+  * 날개의 깃털을 날려 공격
+  * 날개의 깃털을 뽑아 휘두르기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 별자리 관련. (운명의 별자리 등)
+  * 자신이 서 있는 위치에 별을 기록. 별이 기록된 위치에서 떨어진 곳에 또 별을 기록할 수 있음.
+  * 기록한 별이 n개 이상일 때 별을 이어 별자리로 만듦.
+  * 별자리의 크기or 기록한 별의 개수 or 기타 등등으로 효과 발동
+- 룬문자 서판으로 공격
+  * 룬 문자에 맞는 공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>곰방대 + 스케이트보드 + 피리
+- 곰방대로 직접 타격
+  * 곰방대에서 나오는 연기로 추진력을 얻어 더 강력한 공격
+- 곰방대에서 나오는 연기로 공격
+  * 곰방대를 물어 연기를 뿜는 등
+  * 곰방대의 연기로 분신이나 소환수를 소환하여 조종</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>탈(가면) + 도깨비 방망이 + 인공팔
+- 탈을 갈아끼며 태세전환
+  * 사자탈: 사자처럼 강인한 발톱과 신체
+  * 하회탈: 광대처럼 춤을 추듯 공격 등
+- 도깨비 방망이의 형태를 변화시켜 공격
+  * 도깨비 감투 활용
+  * 팔에 감아 인공팔로 활용 (윈터솔져)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선비, 훈장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,6 +591,33 @@
       <name val="페이퍼로지 6 SemiBold"/>
       <family val="3"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13.5"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -162,7 +676,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -182,11 +696,41 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="4"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -468,23 +1012,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E2"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:E100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="9.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="91.75" style="8" customWidth="1"/>
-    <col min="5" max="5" width="11.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="91.69921875" style="18" customWidth="1"/>
+    <col min="5" max="5" width="23.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" s="4" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
@@ -498,10 +1043,10 @@
         <v>2</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="132" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="159.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -509,13 +1054,672 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="141.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="159.15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="141.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="124.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="176.55" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>5</v>
+      <c r="B7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="37.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D8" s="17"/>
+    </row>
+    <row r="9" spans="1:5" ht="37.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D9" s="17"/>
+    </row>
+    <row r="10" spans="1:5" ht="37.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D10" s="17"/>
+    </row>
+    <row r="11" spans="1:5" ht="37.35" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="12" spans="1:5" ht="37.35" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="13" spans="1:5" ht="37.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D13" s="17"/>
+    </row>
+    <row r="14" spans="1:5" ht="37.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D14" s="17"/>
+    </row>
+    <row r="15" spans="1:5" ht="37.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D15" s="17"/>
+    </row>
+    <row r="16" spans="1:5" ht="37.35" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="17" ht="37.35" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="18" ht="37.35" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="19" ht="37.35" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="20" ht="37.35" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="21" ht="37.35" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="22" ht="37.35" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="23" ht="37.35" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="24" ht="37.35" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="25" ht="37.35" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="26" ht="37.35" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="27" ht="37.35" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="28" ht="37.35" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="29" ht="37.35" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="30" ht="37.35" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="31" ht="37.35" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="32" ht="37.35" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="33" ht="37.35" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="34" ht="37.35" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="35" ht="37.35" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="36" ht="37.35" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="37" ht="37.35" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="38" ht="37.35" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="39" ht="37.35" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="40" ht="37.35" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="41" ht="37.35" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="42" ht="37.35" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="43" ht="37.35" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="44" ht="37.35" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="45" ht="37.35" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="46" ht="37.35" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="47" ht="37.35" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="48" ht="37.35" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="49" ht="37.35" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="50" ht="37.35" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="51" ht="37.35" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="52" ht="37.35" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="53" ht="37.35" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="54" ht="37.35" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="55" ht="37.35" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="56" ht="37.35" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="57" ht="37.35" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="58" ht="37.35" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="59" ht="37.35" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="60" ht="37.35" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="61" ht="37.35" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="62" ht="37.35" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="63" ht="37.35" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="64" ht="37.35" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="65" ht="37.35" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="66" ht="37.35" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="67" ht="37.35" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="68" ht="37.35" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="69" ht="37.35" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="70" ht="37.35" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="71" ht="37.35" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="72" ht="37.35" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="73" ht="37.35" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="74" ht="37.35" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="75" ht="37.35" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="76" ht="37.35" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="77" ht="37.35" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="78" ht="37.35" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="79" ht="37.35" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="80" ht="37.35" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="81" ht="37.35" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="82" ht="37.35" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="83" ht="37.35" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="84" ht="37.35" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="85" ht="37.35" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="86" ht="37.35" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="87" ht="37.35" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="88" ht="37.35" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="89" ht="37.35" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="90" ht="37.35" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="91" ht="37.35" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="92" ht="37.35" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="93" ht="37.35" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="94" ht="37.35" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="95" ht="37.35" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="96" ht="37.35" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="97" ht="37.35" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="98" ht="37.35" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="99" ht="37.35" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="100" ht="37.35" customHeight="1" x14ac:dyDescent="0.4"/>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFDC5C90-3349-4523-9F96-34751EDFCEE2}">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="B2:B140"/>
+  <sheetViews>
+    <sheetView topLeftCell="A123" workbookViewId="0">
+      <selection activeCell="B64" sqref="B64"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="2" spans="2:2" ht="21" x14ac:dyDescent="0.4">
+      <c r="B2" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" ht="19.2" x14ac:dyDescent="0.4">
+      <c r="B6" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B7" s="10"/>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B8" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B9" s="10"/>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B10" s="10"/>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B11" s="12"/>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B12" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B13" s="12"/>
+    </row>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B14" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B15" s="12"/>
+    </row>
+    <row r="16" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B16" s="13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B17" s="12"/>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B18" s="12"/>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B19" s="14"/>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B20" s="15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B21" s="14"/>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B22" s="15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" ht="19.2" x14ac:dyDescent="0.4">
+      <c r="B26" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B27" s="10"/>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B28" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B29" s="10"/>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B30" s="10"/>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B31" s="12"/>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B32" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B33" s="12"/>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B34" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B35" s="12"/>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B36" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B37" s="12"/>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B38" s="13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B39" s="12"/>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B40" s="12"/>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B41" s="14"/>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B42" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B43" s="14"/>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B44" s="15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" ht="19.2" x14ac:dyDescent="0.4">
+      <c r="B48" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B49" s="10"/>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B50" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B51" s="10"/>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B52" s="10"/>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B53" s="12"/>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B54" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B55" s="12"/>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B56" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B57" s="12"/>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B58" s="12"/>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B59" s="14"/>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B60" s="15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B61" s="14"/>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B62" s="14"/>
+    </row>
+    <row r="63" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B63" s="16"/>
+    </row>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B64" s="16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B65" s="14"/>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B66" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B67" s="14"/>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B68" s="14"/>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B69" s="16"/>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B70" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B71" s="12"/>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B72" s="13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B73" s="12"/>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B74" s="12"/>
+    </row>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B75" s="14"/>
+    </row>
+    <row r="76" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B76" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2" ht="19.2" x14ac:dyDescent="0.4">
+      <c r="B80" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B81" s="10"/>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B82" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B83" s="10"/>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B84" s="10"/>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B85" s="12"/>
+    </row>
+    <row r="86" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B86" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B87" s="12"/>
+    </row>
+    <row r="88" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B88" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B89" s="12"/>
+    </row>
+    <row r="90" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B90" s="13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B91" s="12"/>
+    </row>
+    <row r="92" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B92" s="12"/>
+    </row>
+    <row r="93" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B93" s="14"/>
+    </row>
+    <row r="94" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B94" s="15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="95" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B95" s="14"/>
+    </row>
+    <row r="96" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B96" s="15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2" ht="19.2" x14ac:dyDescent="0.4">
+      <c r="B100" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="101" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B101" s="10"/>
+    </row>
+    <row r="102" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B102" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="103" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B103" s="10"/>
+    </row>
+    <row r="104" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B104" s="10"/>
+    </row>
+    <row r="105" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B105" s="12"/>
+    </row>
+    <row r="106" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B106" s="12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="107" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B107" s="12"/>
+    </row>
+    <row r="108" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B108" s="13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="109" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B109" s="12"/>
+    </row>
+    <row r="110" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B110" s="13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="111" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B111" s="12"/>
+    </row>
+    <row r="112" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B112" s="13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="113" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B113" s="12"/>
+    </row>
+    <row r="114" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B114" s="12"/>
+    </row>
+    <row r="115" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B115" s="14"/>
+    </row>
+    <row r="116" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B116" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="117" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B117" s="14"/>
+    </row>
+    <row r="118" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B118" s="15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="122" spans="2:2" ht="19.2" x14ac:dyDescent="0.4">
+      <c r="B122" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="123" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B123" s="10"/>
+    </row>
+    <row r="124" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B124" s="11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="125" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B125" s="10"/>
+    </row>
+    <row r="126" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B126" s="10"/>
+    </row>
+    <row r="127" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B127" s="12"/>
+    </row>
+    <row r="128" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B128" s="12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="129" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B129" s="12"/>
+    </row>
+    <row r="130" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B130" s="12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="131" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B131" s="12"/>
+    </row>
+    <row r="132" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B132" s="13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="133" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B133" s="12"/>
+    </row>
+    <row r="134" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B134" s="12"/>
+    </row>
+    <row r="135" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B135" s="14"/>
+    </row>
+    <row r="136" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B136" s="15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="137" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B137" s="14"/>
+    </row>
+    <row r="138" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B138" s="15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="139" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B139" s="14"/>
+    </row>
+    <row r="140" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B140" s="15" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/로스트아크/신규클래스_아이디어.xlsx
+++ b/로스트아크/신규클래스_아이디어.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr codeName="현재_통합_문서"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sky20\Desktop\진선\GameDesign\로스트아크\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D6FF169-FF50-471B-B021-9CD8A77CC3FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E604E4A6-2682-4D02-B770-C29920FD8195}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="71">
   <si>
     <t>사용 무기</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -563,6 +563,18 @@
   </si>
   <si>
     <t>선비, 훈장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분신 생성
+연금술사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 게이지를 꽉 채우면 N초 동안 유지되는 호문쿨루스를 소환.
+- 캐릭터는 x키로 이 호문쿨루스와 위치를 바꿀 수 있다.
+- 캐릭터와 호문쿨루스는 각자의 영역을 가지고 있는데, 이 영역이 겹치기 시작하면 게이지가 달면서(호문쿨루스의 힘이 소모되면서) 겹쳐진 영역에 지속적인 피해를 입힌다.
+- 단, 상대의 영역에 닿는 경우 (캐릭터가 호문쿨루스의 영역에 닿거나 호문쿨루스의 영역에 캐릭터가 닿는 경우) 캐릭터도 피해를 입고 게이지도 빨리 소모된다(호문쿨루스도 피해를 입는다).</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1015,8 +1027,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1139,8 +1151,16 @@
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="37.35" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D8" s="17"/>
+    <row r="8" spans="1:5" ht="104.4" x14ac:dyDescent="0.4">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="9" spans="1:5" ht="37.35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D9" s="17"/>

--- a/로스트아크/신규클래스_아이디어.xlsx
+++ b/로스트아크/신규클래스_아이디어.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sky20\Desktop\진선\GameDesign\로스트아크\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E604E4A6-2682-4D02-B770-C29920FD8195}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96F88FDE-F175-4C75-9F0E-4BB9745309EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="77">
   <si>
     <t>사용 무기</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -575,6 +575,32 @@
 - 캐릭터는 x키로 이 호문쿨루스와 위치를 바꿀 수 있다.
 - 캐릭터와 호문쿨루스는 각자의 영역을 가지고 있는데, 이 영역이 겹치기 시작하면 게이지가 달면서(호문쿨루스의 힘이 소모되면서) 겹쳐진 영역에 지속적인 피해를 입힌다.
 - 단, 상대의 영역에 닿는 경우 (캐릭터가 호문쿨루스의 영역에 닿거나 호문쿨루스의 영역에 캐릭터가 닿는 경우) 캐릭터도 피해를 입고 게이지도 빨리 소모된다(호문쿨루스도 피해를 입는다).</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클래스명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클러스터
+(Cluster)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 군체, 무리 를 뜻하는 클러스터
+- 작은 조각들을 모아 기계/골렘 등을 만들어 내는 연금술사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>블레이드(남)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소환 연금술사</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -646,7 +672,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -684,11 +710,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -743,6 +782,12 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1025,161 +1070,196 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:E100"/>
+  <dimension ref="A1:F100"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="91.69921875" style="18" customWidth="1"/>
-    <col min="5" max="5" width="23.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="5"/>
+    <col min="2" max="2" width="15.8984375" style="2" customWidth="1"/>
+    <col min="3" max="4" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="91.69921875" style="18" customWidth="1"/>
+    <col min="6" max="6" width="23.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" s="4" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="159.15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" ht="159.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="E2" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="F2" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="141.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" ht="141.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="E3" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="159.15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" ht="159.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="E4" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="141.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" ht="141.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="E5" s="17" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="124.35" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" ht="124.35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="E6" s="17" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="176.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" ht="176.55" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="E7" s="17" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="104.4" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" ht="104.4" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="B8" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="E8" s="17" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="37.35" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D9" s="17"/>
-    </row>
-    <row r="10" spans="1:5" ht="37.35" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D10" s="17"/>
-    </row>
-    <row r="11" spans="1:5" ht="37.35" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="12" spans="1:5" ht="37.35" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="13" spans="1:5" ht="37.35" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D13" s="17"/>
-    </row>
-    <row r="14" spans="1:5" ht="37.35" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D14" s="17"/>
-    </row>
-    <row r="15" spans="1:5" ht="37.35" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D15" s="17"/>
-    </row>
-    <row r="16" spans="1:5" ht="37.35" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="9" spans="1:6" ht="37.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="37.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E10" s="17"/>
+    </row>
+    <row r="11" spans="1:6" ht="37.35" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="12" spans="1:6" ht="37.35" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="13" spans="1:6" ht="37.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E13" s="17"/>
+    </row>
+    <row r="14" spans="1:6" ht="37.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E14" s="17"/>
+    </row>
+    <row r="15" spans="1:6" ht="37.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E15" s="17"/>
+    </row>
+    <row r="16" spans="1:6" ht="37.35" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="17" ht="37.35" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="18" ht="37.35" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" ht="37.35" customHeight="1" x14ac:dyDescent="0.4"/>

--- a/로스트아크/신규클래스_아이디어.xlsx
+++ b/로스트아크/신규클래스_아이디어.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sky20\Desktop\진선\GameDesign\로스트아크\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96F88FDE-F175-4C75-9F0E-4BB9745309EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B4018DD-5941-4441-8E06-FD21FB56E0A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="80">
   <si>
     <t>사용 무기</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -582,16 +582,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>클러스터
-(Cluster)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>- 군체, 무리 를 뜻하는 클러스터
-- 작은 조각들을 모아 기계/골렘 등을 만들어 내는 연금술사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>블레이드(남)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -601,6 +591,31 @@
   </si>
   <si>
     <t>소환 연금술사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 작은 조각들을 모아 기계/골렘 등을 만들어 내는 연금술사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>근접 타격
+연금술사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 무기: 인공 팔을 무기로 활용(공격 기능 위주로 넣은 호문쿨루스)
+- 호문쿨루스의 외형을 바꿔가며 직접 타격하는 근접 캐릭터
+- 건틀릿 등</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마이스터
+(Meister)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아머마스터
+(Amormaster)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1072,14 +1087,14 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="15.8984375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="15.69921875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="14" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="91.69921875" style="18" customWidth="1"/>
     <col min="6" max="6" width="23.09765625" style="1" bestFit="1" customWidth="1"/>
@@ -1111,7 +1126,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
@@ -1131,7 +1146,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>9</v>
@@ -1151,7 +1166,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>11</v>
@@ -1171,7 +1186,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>17</v>
@@ -1188,7 +1203,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>13</v>
@@ -1205,7 +1220,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>14</v>
@@ -1222,7 +1237,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>69</v>
@@ -1236,17 +1251,28 @@
         <v>8</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="D10" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="E9" s="17" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="37.35" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E10" s="17"/>
+      <c r="E10" s="17" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="11" spans="1:6" ht="37.35" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="12" spans="1:6" ht="37.35" customHeight="1" x14ac:dyDescent="0.4"/>

--- a/로스트아크/신규클래스_아이디어.xlsx
+++ b/로스트아크/신규클래스_아이디어.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr codeName="현재_통합_문서"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sky20\Desktop\진선\GameDesign\로스트아크\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B4018DD-5941-4441-8E06-FD21FB56E0A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6B4D8C8-08F0-41B7-B00A-B1F97317A538}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="85">
   <si>
     <t>사용 무기</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -616,6 +616,33 @@
   <si>
     <t>아머마스터
 (Amormaster)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연금술의 대가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 연금술 하나만 파고들어 연금술의 원리를 가장 잘 활용하는 연금술의 대가
+- 생성, 축적, 변환 컨셉으로 축적한 게이지를 변환하여 뭔가를 생성하는 느낌이 가장 잘 드러나는 클래스
+- 마나 대신 다른 코스트를 활용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아머케미스트
+(Armorchemist)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>근접 타격 
+연금술사 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 최적의 아머 조합
+- 방어구 + 무기를 조합한다.
+- 스킬을 사용하면 만들어낸 아머의 크기가 커지거나 외형이 바뀐다.
+- 최적의 조합이 완성되면 아이덴티티 게이지가 빛나며 이득이 생긴다. (피해량 증가, 버프 등)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1088,13 +1115,13 @@
   <dimension ref="A1:F100"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="15.69921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="14" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="91.69921875" style="18" customWidth="1"/>
     <col min="6" max="6" width="23.09765625" style="1" bestFit="1" customWidth="1"/>
@@ -1251,7 +1278,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>74</v>
@@ -1274,8 +1301,34 @@
         <v>77</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="37.35" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="12" spans="1:6" ht="37.35" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="11" spans="1:6" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="69.599999999999994" x14ac:dyDescent="0.4">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>84</v>
+      </c>
+    </row>
     <row r="13" spans="1:6" ht="37.35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E13" s="17"/>
     </row>
